--- a/GridSearchCV_results/CKD_case/test_results_y_pred_clf_fpipe_c.xlsx
+++ b/GridSearchCV_results/CKD_case/test_results_y_pred_clf_fpipe_c.xlsx
@@ -43,7 +43,7 @@
     <t>clf_fpipe_c</t>
   </si>
   <si>
-    <t>{'clf': RandomForestClassifier(random_state=42), 'data_prep__numeric_pipe__data_missing__strategy': 'mean'}</t>
+    <t>{'clf': ExtraTreesClassifier(random_state=42), 'data_prep__numeric_pipe__data_missing__strategy': 'mean'}</t>
   </si>
 </sst>
 </file>
@@ -441,22 +441,22 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>0.9833333333333333</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.9772727272727273</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.9555555555555556</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0.9777777777777779</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
